--- a/クリックポスト発送情報/20200622122827/英子日本发货表格6.21.xlsx
+++ b/クリックポスト発送情報/20200622122827/英子日本发货表格6.21.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
   <si>
     <t>序号</t>
   </si>
@@ -356,6 +356,74 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317321</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317310</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628488317306</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317295</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317284</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317273</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317262</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317251</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317240</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317236</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317225</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317214</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317203</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317192</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317181</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317170</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628488317166</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -364,7 +432,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -500,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -612,7 +680,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,6 +697,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1788,7 +1859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -2325,7 +2396,9 @@
         <v>22</v>
       </c>
       <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="L3" s="33"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -2643,6 +2716,9 @@
       <c r="I5" s="40" t="s">
         <v>28</v>
       </c>
+      <c r="K5" s="43" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:182" ht="121.95" customHeight="1">
       <c r="A6" s="41"/>
@@ -2657,6 +2733,9 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
+      <c r="K6" s="43" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:182" ht="121.95" customHeight="1">
       <c r="A7" s="18" t="s">
@@ -2681,6 +2760,9 @@
       <c r="I7" s="16" t="s">
         <v>34</v>
       </c>
+      <c r="K7" s="43" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="1:182" ht="121.95" customHeight="1">
       <c r="A8" s="18" t="s">
@@ -2705,6 +2787,9 @@
       <c r="I8" s="16" t="s">
         <v>39</v>
       </c>
+      <c r="K8" s="43" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:182" ht="121.95" customHeight="1">
       <c r="A9" s="18" t="s">
@@ -2729,6 +2814,9 @@
       <c r="I9" s="16" t="s">
         <v>44</v>
       </c>
+      <c r="K9" s="43" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:182" ht="121.95" customHeight="1">
       <c r="A10" s="20" t="s">
@@ -2753,6 +2841,9 @@
       <c r="I10" s="22" t="s">
         <v>51</v>
       </c>
+      <c r="K10" s="43" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="1:182" ht="121.95" customHeight="1">
       <c r="A11" s="24" t="s">
@@ -2777,6 +2868,9 @@
       <c r="I11" s="26" t="s">
         <v>56</v>
       </c>
+      <c r="K11" s="43" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" spans="1:182" ht="121.95" customHeight="1">
       <c r="A12" s="24" t="s">
@@ -2801,6 +2895,9 @@
       <c r="I12" s="26" t="s">
         <v>61</v>
       </c>
+      <c r="K12" s="43" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:182" ht="121.95" customHeight="1">
       <c r="A13" s="24" t="s">
@@ -2825,6 +2922,9 @@
       <c r="I13" s="26" t="s">
         <v>66</v>
       </c>
+      <c r="K13" s="43" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:182" ht="121.95" customHeight="1">
       <c r="A14" s="24" t="s">
@@ -2849,6 +2949,9 @@
       <c r="I14" s="26" t="s">
         <v>70</v>
       </c>
+      <c r="K14" s="43" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:182" ht="121.95" customHeight="1">
       <c r="A15" s="27" t="s">
@@ -2873,6 +2976,9 @@
       <c r="I15" s="26" t="s">
         <v>75</v>
       </c>
+      <c r="K15" s="43" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:182" ht="121.95" customHeight="1">
       <c r="A16" s="27">
@@ -2897,8 +3003,11 @@
       <c r="I16" s="26" t="s">
         <v>79</v>
       </c>
+      <c r="K16" s="43" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" ht="121.95" customHeight="1">
+    <row r="17" spans="1:11" ht="121.95" customHeight="1">
       <c r="A17" s="24" t="s">
         <v>80</v>
       </c>
@@ -2921,8 +3030,11 @@
       <c r="I17" s="26" t="s">
         <v>84</v>
       </c>
+      <c r="K17" s="43" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="121.95" customHeight="1">
+    <row r="18" spans="1:11" ht="121.95" customHeight="1">
       <c r="A18" s="28" t="s">
         <v>85</v>
       </c>
@@ -2945,8 +3057,11 @@
       <c r="I18" s="31" t="s">
         <v>89</v>
       </c>
+      <c r="K18" s="43" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" ht="121.95" customHeight="1">
+    <row r="19" spans="1:11" ht="121.95" customHeight="1">
       <c r="A19" s="28" t="s">
         <v>90</v>
       </c>
@@ -2969,8 +3084,11 @@
       <c r="I19" s="31" t="s">
         <v>94</v>
       </c>
+      <c r="K19" s="43" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" ht="121.95" customHeight="1">
+    <row r="20" spans="1:11" ht="121.95" customHeight="1">
       <c r="A20" s="28" t="s">
         <v>95</v>
       </c>
@@ -2993,19 +3111,22 @@
       <c r="I20" s="31" t="s">
         <v>99</v>
       </c>
+      <c r="K20" s="43" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="22" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="23" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="24" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="25" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="26" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="27" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="28" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="29" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="30" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="31" spans="1:9" ht="121.95" customHeight="1"/>
-    <row r="32" spans="1:9" ht="121.95" customHeight="1"/>
+    <row r="21" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="22" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="23" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="24" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="25" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="26" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="27" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="28" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="29" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="30" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="31" spans="1:11" ht="121.95" customHeight="1"/>
+    <row r="32" spans="1:11" ht="121.95" customHeight="1"/>
     <row r="33" ht="121.95" customHeight="1"/>
     <row r="34" ht="121.95" customHeight="1"/>
     <row r="35" ht="121.95" customHeight="1"/>
